--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="176">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>293.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
+    <t>877.0</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
   </si>
   <si>
     <t>0.0</t>
@@ -135,13 +135,10 @@
     <t>165.0</t>
   </si>
   <si>
-    <t>-134.0</t>
-  </si>
-  <si>
     <t>2022-12-31</t>
   </si>
   <si>
-    <t>personnes dans l'année</t>
+    <t>personnes dans l'année*</t>
   </si>
   <si>
     <t>02</t>
@@ -150,7 +147,7 @@
     <t>Martinique</t>
   </si>
   <si>
-    <t>137.0</t>
+    <t>444.0</t>
   </si>
   <si>
     <t>55.0</t>
@@ -177,7 +174,7 @@
     <t>Guyane</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>139.0</t>
@@ -201,7 +198,7 @@
     <t>La Réunion</t>
   </si>
   <si>
-    <t>1329.0</t>
+    <t>2348.0</t>
   </si>
   <si>
     <t>893.0</t>
@@ -234,7 +231,7 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>28983.0</t>
+    <t>39688.0</t>
   </si>
   <si>
     <t>11623.0</t>
@@ -252,16 +249,13 @@
     <t>14366.0</t>
   </si>
   <si>
-    <t>-22.0</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>10849.0</t>
+    <t>15483.0</t>
   </si>
   <si>
     <t>1888.0</t>
@@ -288,7 +282,7 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>14020.0</t>
+    <t>20723.0</t>
   </si>
   <si>
     <t>1745.0</t>
@@ -315,7 +309,7 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>15694.0</t>
+    <t>22814.0</t>
   </si>
   <si>
     <t>2255.0</t>
@@ -342,7 +336,7 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>33435.0</t>
+    <t>46309.0</t>
   </si>
   <si>
     <t>6114.0</t>
@@ -369,7 +363,7 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>22646.0</t>
+    <t>33050.0</t>
   </si>
   <si>
     <t>3731.0</t>
@@ -396,7 +390,7 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>19516.0</t>
+    <t>28096.0</t>
   </si>
   <si>
     <t>2391.0</t>
@@ -423,7 +417,7 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>18240.0</t>
+    <t>26189.0</t>
   </si>
   <si>
     <t>1795.0</t>
@@ -447,7 +441,7 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>28044.0</t>
+    <t>39605.0</t>
   </si>
   <si>
     <t>3445.0</t>
@@ -474,7 +468,7 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>25095.0</t>
+    <t>35534.0</t>
   </si>
   <si>
     <t>4136.0</t>
@@ -498,7 +492,7 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>29042.0</t>
+    <t>42161.0</t>
   </si>
   <si>
     <t>4822.0</t>
@@ -519,7 +513,7 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>9479.0</t>
+    <t>13361.0</t>
   </si>
   <si>
     <t>2697.0</t>
@@ -546,7 +540,7 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>504.0</t>
+    <t>714.0</t>
   </si>
   <si>
     <t>114.0</t>
@@ -1019,13 +1013,13 @@
         <v>33</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1093,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1114,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1131,40 +1125,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1238,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1253,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1270,40 +1264,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
         <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" t="s">
         <v>115</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" t="s">
-        <v>118</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1377,13 +1371,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1392,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1409,40 +1403,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" t="s">
         <v>124</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" t="s">
-        <v>127</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1516,13 +1510,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1531,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1548,40 +1542,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
         <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
         <v>133</v>
       </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>135</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1655,13 +1649,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1670,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1687,40 +1681,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
         <v>141</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>142</v>
       </c>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" t="s">
-        <v>144</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1794,13 +1788,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
         <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" t="s">
-        <v>147</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1809,7 +1803,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1826,40 +1820,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
         <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>148</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" t="s">
         <v>150</v>
       </c>
-      <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" t="s">
-        <v>152</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1933,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1948,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -1965,40 +1959,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" t="s">
-        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2072,13 +2066,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
         <v>160</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2087,7 +2081,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2104,40 +2098,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
         <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
         <v>165</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>166</v>
       </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" t="s">
-        <v>168</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2211,13 +2205,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2226,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2243,40 +2237,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
         <v>170</v>
-      </c>
-      <c r="F3" t="s">
-        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
         <v>174</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>175</v>
       </c>
-      <c r="L3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" t="s">
-        <v>177</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2350,13 +2344,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2365,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2382,40 +2376,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2489,22 +2483,22 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2521,40 +2515,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2628,13 +2622,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2643,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2660,40 +2654,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2767,10 +2761,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -2788,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2862,13 +2856,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2877,7 +2871,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2894,40 +2888,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3001,13 +2995,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3016,7 +3010,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3033,40 +3027,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3140,13 +3134,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3155,7 +3149,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3172,40 +3166,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
         <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
         <v>88</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3279,13 +3273,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3294,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3311,40 +3305,40 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
         <v>97</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>98</v>
       </c>
-      <c r="L3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="202">
   <si>
     <t>mesure</t>
   </si>
@@ -93,19 +93,28 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>877.0</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
+    <t>3131.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>4536.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
     <t>dossiers validés</t>
   </si>
   <si>
-    <t>Offrir un logement aux sans-abri : Logement d’abord</t>
+    <t>Faciliter l’accès au logement des personnes sans-abri</t>
   </si>
   <si>
     <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
@@ -135,9 +144,6 @@
     <t>165.0</t>
   </si>
   <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
     <t>personnes dans l'année*</t>
   </si>
   <si>
@@ -147,7 +153,10 @@
     <t>Martinique</t>
   </si>
   <si>
-    <t>444.0</t>
+    <t>1642.0</t>
+  </si>
+  <si>
+    <t>2379.0</t>
   </si>
   <si>
     <t>55.0</t>
@@ -174,7 +183,13 @@
     <t>Guyane</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
   </si>
   <si>
     <t>139.0</t>
@@ -183,9 +198,6 @@
     <t>68.0</t>
   </si>
   <si>
-    <t>71.0</t>
-  </si>
-  <si>
     <t>104.0</t>
   </si>
   <si>
@@ -198,7 +210,10 @@
     <t>La Réunion</t>
   </si>
   <si>
-    <t>2348.0</t>
+    <t>4626.0</t>
+  </si>
+  <si>
+    <t>6702.0</t>
   </si>
   <si>
     <t>893.0</t>
@@ -210,9 +225,6 @@
     <t>365.0</t>
   </si>
   <si>
-    <t>69.0</t>
-  </si>
-  <si>
     <t>1034.0</t>
   </si>
   <si>
@@ -225,13 +237,25 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>39688.0</t>
+    <t>73197.0</t>
+  </si>
+  <si>
+    <t>133362.0</t>
   </si>
   <si>
     <t>11623.0</t>
@@ -255,7 +279,13 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>15483.0</t>
+    <t>31158.0</t>
+  </si>
+  <si>
+    <t>53643.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
   </si>
   <si>
     <t>1888.0</t>
@@ -282,7 +312,10 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>20723.0</t>
+    <t>43926.0</t>
+  </si>
+  <si>
+    <t>75451.0</t>
   </si>
   <si>
     <t>1745.0</t>
@@ -309,7 +342,10 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>22814.0</t>
+    <t>45206.0</t>
+  </si>
+  <si>
+    <t>67377.0</t>
   </si>
   <si>
     <t>2255.0</t>
@@ -336,7 +372,10 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>46309.0</t>
+    <t>87573.0</t>
+  </si>
+  <si>
+    <t>121959.0</t>
   </si>
   <si>
     <t>6114.0</t>
@@ -363,7 +402,10 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>33050.0</t>
+    <t>68817.0</t>
+  </si>
+  <si>
+    <t>128351.0</t>
   </si>
   <si>
     <t>3731.0</t>
@@ -390,7 +432,13 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>28096.0</t>
+    <t>53327.0</t>
+  </si>
+  <si>
+    <t>52352.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
   </si>
   <si>
     <t>2391.0</t>
@@ -417,7 +465,13 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>26189.0</t>
+    <t>50846.0</t>
+  </si>
+  <si>
+    <t>60958.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
   </si>
   <si>
     <t>1795.0</t>
@@ -441,7 +495,10 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>39605.0</t>
+    <t>78474.0</t>
+  </si>
+  <si>
+    <t>87321.0</t>
   </si>
   <si>
     <t>3445.0</t>
@@ -468,7 +525,13 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>35534.0</t>
+    <t>68980.0</t>
+  </si>
+  <si>
+    <t>69946.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
   </si>
   <si>
     <t>4136.0</t>
@@ -492,7 +555,13 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>42161.0</t>
+    <t>86022.0</t>
+  </si>
+  <si>
+    <t>153366.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
   </si>
   <si>
     <t>4822.0</t>
@@ -513,7 +582,13 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>13361.0</t>
+    <t>26497.0</t>
+  </si>
+  <si>
+    <t>35427.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
   </si>
   <si>
     <t>2697.0</t>
@@ -540,7 +615,10 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>714.0</t>
+    <t>1283.0</t>
+  </si>
+  <si>
+    <t>1860.0</t>
   </si>
   <si>
     <t>114.0</t>
@@ -971,19 +1049,28 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -992,34 +1079,34 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1093,13 +1180,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1108,57 +1195,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1247,57 +1343,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1476,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1386,57 +1491,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1510,13 +1624,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1525,57 +1639,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1649,13 +1772,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1664,57 +1787,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1788,13 +1920,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1803,57 +1935,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1927,13 +2068,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1942,57 +2083,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2066,13 +2216,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2081,57 +2231,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>183</v>
+      </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2205,13 +2364,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2220,57 +2379,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2344,13 +2512,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2359,57 +2527,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2483,13 +2660,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2498,57 +2675,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2622,13 +2808,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2637,57 +2823,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2892,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2752,37 +2947,78 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>35</v>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2856,13 +3092,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2871,57 +3107,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2995,13 +3240,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3010,57 +3255,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3134,13 +3388,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3149,57 +3403,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3273,13 +3536,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3288,57 +3551,66 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="203">
   <si>
     <t>mesure</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
   </si>
   <si>
     <t>4536.0</t>
@@ -1046,31 +1049,34 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1079,34 +1085,34 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1180,13 +1186,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1194,67 +1200,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1342,67 +1351,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1476,13 +1488,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1490,67 +1502,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1624,13 +1639,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1638,67 +1653,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1772,13 +1790,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1786,67 +1804,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1920,13 +1941,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1934,67 +1955,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2068,13 +2092,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2082,67 +2106,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2216,13 +2243,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2230,67 +2257,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2364,13 +2394,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2378,67 +2408,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2512,13 +2545,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2526,67 +2559,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2660,13 +2696,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2674,67 +2710,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2808,13 +2847,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2822,67 +2861,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2956,13 +2998,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2970,55 +3012,58 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3092,13 +3137,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3106,67 +3151,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3240,13 +3288,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3254,67 +3302,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3388,13 +3439,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3402,67 +3453,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3536,13 +3590,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3550,67 +3604,70 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="205">
   <si>
     <t>mesure</t>
   </si>
@@ -99,54 +99,57 @@
     <t>2021-11-30</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>4536.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>dossiers validés</t>
+  </si>
+  <si>
+    <t>Faciliter l’accès au logement des personnes sans-abri</t>
+  </si>
+  <si>
+    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
+  </si>
+  <si>
+    <t>logement-sans-domicile-hebergement-urgence</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-39.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>4536.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>dossiers validés</t>
-  </si>
-  <si>
-    <t>Faciliter l’accès au logement des personnes sans-abri</t>
-  </si>
-  <si>
-    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
-  </si>
-  <si>
-    <t>logement-sans-domicile-hebergement-urgence</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
     <t>personnes dans l'année*</t>
   </si>
   <si>
@@ -165,420 +168,423 @@
     <t>55.0</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>4626.0</t>
+  </si>
+  <si>
+    <t>6702.0</t>
+  </si>
+  <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>365.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>73197.0</t>
+  </si>
+  <si>
+    <t>133362</t>
+  </si>
+  <si>
+    <t>11623.0</t>
+  </si>
+  <si>
+    <t>12124</t>
+  </si>
+  <si>
+    <t>-501.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>14366</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>31158.0</t>
+  </si>
+  <si>
+    <t>53643</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>1888.0</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>43926.0</t>
+  </si>
+  <si>
+    <t>75451</t>
+  </si>
+  <si>
+    <t>1745.0</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>45206.0</t>
+  </si>
+  <si>
+    <t>67377</t>
+  </si>
+  <si>
+    <t>2255.0</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>337.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>2739</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>87573.0</t>
+  </si>
+  <si>
+    <t>121959</t>
+  </si>
+  <si>
+    <t>6114.0</t>
+  </si>
+  <si>
+    <t>4679</t>
+  </si>
+  <si>
+    <t>1435.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>6556</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>68817.0</t>
+  </si>
+  <si>
+    <t>128351</t>
+  </si>
+  <si>
+    <t>3731.0</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>675.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>4345</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>53327.0</t>
+  </si>
+  <si>
+    <t>52352</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>2391.0</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>523.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>50846.0</t>
+  </si>
+  <si>
+    <t>60958</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>1795.0</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>78474.0</t>
+  </si>
+  <si>
+    <t>87321</t>
+  </si>
+  <si>
+    <t>3445.0</t>
+  </si>
+  <si>
+    <t>3093</t>
+  </si>
+  <si>
+    <t>352.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>4158</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>68980.0</t>
+  </si>
+  <si>
+    <t>69946</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>4136.0</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>4455</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>86022.0</t>
+  </si>
+  <si>
+    <t>153366</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>4822.0</t>
+  </si>
+  <si>
+    <t>4325</t>
+  </si>
+  <si>
+    <t>497.0</t>
+  </si>
+  <si>
+    <t>6028</t>
+  </si>
+  <si>
     <t>29.0</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4626.0</t>
-  </si>
-  <si>
-    <t>6702.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>528.0</t>
-  </si>
-  <si>
-    <t>365.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>73197.0</t>
-  </si>
-  <si>
-    <t>133362.0</t>
-  </si>
-  <si>
-    <t>11623.0</t>
-  </si>
-  <si>
-    <t>12124.0</t>
-  </si>
-  <si>
-    <t>-501.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>14366.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>31158.0</t>
-  </si>
-  <si>
-    <t>53643.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>1888.0</t>
-  </si>
-  <si>
-    <t>1538.0</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>2200.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>43926.0</t>
-  </si>
-  <si>
-    <t>75451.0</t>
-  </si>
-  <si>
-    <t>1745.0</t>
-  </si>
-  <si>
-    <t>1439.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>2134.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>45206.0</t>
-  </si>
-  <si>
-    <t>67377.0</t>
-  </si>
-  <si>
-    <t>2255.0</t>
-  </si>
-  <si>
-    <t>1918.0</t>
-  </si>
-  <si>
-    <t>337.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>2739.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>87573.0</t>
-  </si>
-  <si>
-    <t>121959.0</t>
-  </si>
-  <si>
-    <t>6114.0</t>
-  </si>
-  <si>
-    <t>4679.0</t>
-  </si>
-  <si>
-    <t>1435.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>6556.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>68817.0</t>
-  </si>
-  <si>
-    <t>128351.0</t>
-  </si>
-  <si>
-    <t>3731.0</t>
-  </si>
-  <si>
-    <t>3056.0</t>
-  </si>
-  <si>
-    <t>675.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>4345.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>53327.0</t>
-  </si>
-  <si>
-    <t>52352.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>2391.0</t>
-  </si>
-  <si>
-    <t>1868.0</t>
-  </si>
-  <si>
-    <t>523.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>3201.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>50846.0</t>
-  </si>
-  <si>
-    <t>60958.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>1795.0</t>
-  </si>
-  <si>
-    <t>1415.0</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>78474.0</t>
-  </si>
-  <si>
-    <t>87321.0</t>
-  </si>
-  <si>
-    <t>3445.0</t>
-  </si>
-  <si>
-    <t>3093.0</t>
-  </si>
-  <si>
-    <t>352.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>4158.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>68980.0</t>
-  </si>
-  <si>
-    <t>69946.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>4136.0</t>
-  </si>
-  <si>
-    <t>3384.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>4455.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>86022.0</t>
-  </si>
-  <si>
-    <t>153366.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>4822.0</t>
-  </si>
-  <si>
-    <t>4325.0</t>
-  </si>
-  <si>
-    <t>497.0</t>
-  </si>
-  <si>
-    <t>6028.0</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -588,7 +594,7 @@
     <t>26497.0</t>
   </si>
   <si>
-    <t>35427.0</t>
+    <t>35427</t>
   </si>
   <si>
     <t>75.0</t>
@@ -597,7 +603,7 @@
     <t>2697.0</t>
   </si>
   <si>
-    <t>2048.0</t>
+    <t>2048</t>
   </si>
   <si>
     <t>649.0</t>
@@ -606,7 +612,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2882.0</t>
+    <t>2882</t>
   </si>
   <si>
     <t>78.0</t>
@@ -621,13 +627,13 @@
     <t>1283.0</t>
   </si>
   <si>
-    <t>1860.0</t>
+    <t>1860</t>
   </si>
   <si>
     <t>114.0</t>
   </si>
   <si>
-    <t>95.0</t>
+    <t>95</t>
   </si>
   <si>
     <t>19.0</t>
@@ -636,7 +642,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>132.0</t>
+    <t>132</t>
   </si>
   <si>
     <t>51.0</t>
@@ -1106,13 +1112,13 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1186,13 +1192,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1204,13 +1210,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1230,40 +1236,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1337,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1355,13 +1361,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1381,40 +1387,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1488,13 +1494,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1506,13 +1512,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1532,40 +1538,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1639,13 +1645,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1657,13 +1663,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1683,40 +1689,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1790,13 +1796,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1808,13 +1814,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1834,40 +1840,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +1947,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1959,13 +1965,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1985,40 +1991,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2092,13 +2098,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2110,13 +2116,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2136,40 +2142,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2243,13 +2249,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2261,13 +2267,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2287,40 +2293,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2394,13 +2400,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2412,10 +2418,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -2438,40 +2444,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2545,13 +2551,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2563,10 +2569,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -2589,40 +2595,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2696,13 +2702,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2714,13 +2720,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2740,40 +2746,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2847,13 +2853,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2865,10 +2871,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -2891,40 +2897,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2998,13 +3004,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3016,13 +3022,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3042,13 +3048,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3060,10 +3066,10 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3137,13 +3143,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3155,13 +3161,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3181,40 +3187,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3288,13 +3294,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3306,13 +3312,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3332,40 +3338,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3439,13 +3445,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3457,13 +3463,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3483,40 +3489,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3590,13 +3596,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3608,13 +3614,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3634,40 +3640,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="194">
   <si>
     <t>mesure</t>
   </si>
@@ -93,13 +93,13 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>3131.0</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>3634.0</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>2019-12-31</t>
@@ -108,7 +108,7 @@
     <t>4536.0</t>
   </si>
   <si>
-    <t>69.0</t>
+    <t>80.0</t>
   </si>
   <si>
     <t>2022-12-31</t>
@@ -126,526 +126,493 @@
     <t>logement-sans-domicile-hebergement-urgence</t>
   </si>
   <si>
-    <t>97.0</t>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>personnes dans l'année*</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>1948.0</t>
+  </si>
+  <si>
+    <t>2379.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>5031.0</t>
+  </si>
+  <si>
+    <t>6702.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>953.0</t>
+  </si>
+  <si>
+    <t>528.0</t>
+  </si>
+  <si>
+    <t>425.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
   <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>personnes dans l'année*</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>1642.0</t>
-  </si>
-  <si>
-    <t>2379.0</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>84637.0</t>
+  </si>
+  <si>
+    <t>133362.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>15845.0</t>
+  </si>
+  <si>
+    <t>12124.0</t>
+  </si>
+  <si>
+    <t>3721.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>14366.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>36477.0</t>
+  </si>
+  <si>
+    <t>53643.0</t>
+  </si>
+  <si>
+    <t>2135.0</t>
+  </si>
+  <si>
+    <t>1538.0</t>
+  </si>
+  <si>
+    <t>597.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>51383.0</t>
+  </si>
+  <si>
+    <t>75451.0</t>
+  </si>
+  <si>
+    <t>1874.0</t>
+  </si>
+  <si>
+    <t>1439.0</t>
+  </si>
+  <si>
+    <t>435.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>2134.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>52255.0</t>
+  </si>
+  <si>
+    <t>67377.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>2901.0</t>
+  </si>
+  <si>
+    <t>1918.0</t>
+  </si>
+  <si>
+    <t>983.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>2739.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>100719.0</t>
+  </si>
+  <si>
+    <t>121959.0</t>
+  </si>
+  <si>
+    <t>6882.0</t>
+  </si>
+  <si>
+    <t>4679.0</t>
+  </si>
+  <si>
+    <t>2203.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>6556.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>80312.0</t>
+  </si>
+  <si>
+    <t>128351.0</t>
+  </si>
+  <si>
+    <t>4455.0</t>
+  </si>
+  <si>
+    <t>3056.0</t>
+  </si>
+  <si>
+    <t>1399.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>4345.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>61547.0</t>
+  </si>
+  <si>
+    <t>52352.0</t>
+  </si>
+  <si>
+    <t>3302.0</t>
+  </si>
+  <si>
+    <t>1868.0</t>
+  </si>
+  <si>
+    <t>1434.0</t>
+  </si>
+  <si>
+    <t>3201.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>58675.0</t>
+  </si>
+  <si>
+    <t>60958.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>2191.0</t>
+  </si>
+  <si>
+    <t>1415.0</t>
+  </si>
+  <si>
+    <t>776.0</t>
   </si>
   <si>
     <t>55.0</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>91456.0</t>
+  </si>
+  <si>
+    <t>87321.0</t>
+  </si>
+  <si>
+    <t>4772.0</t>
+  </si>
+  <si>
+    <t>3093.0</t>
+  </si>
+  <si>
+    <t>1679.0</t>
   </si>
   <si>
     <t>54.0</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
+    <t>4158.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>80271.0</t>
+  </si>
+  <si>
+    <t>69946.0</t>
+  </si>
+  <si>
+    <t>4792.0</t>
+  </si>
+  <si>
+    <t>3384.0</t>
+  </si>
+  <si>
+    <t>1408.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>100396.0</t>
+  </si>
+  <si>
+    <t>153366.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>7022.0</t>
+  </si>
+  <si>
+    <t>4325.0</t>
+  </si>
+  <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>6028.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>30890.0</t>
+  </si>
+  <si>
+    <t>35427.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>3230.0</t>
+  </si>
+  <si>
+    <t>2048.0</t>
+  </si>
+  <si>
+    <t>1182.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>2882.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>1486.0</t>
+  </si>
+  <si>
+    <t>1860.0</t>
   </si>
   <si>
     <t>139.0</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>4626.0</t>
-  </si>
-  <si>
-    <t>6702.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>365.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>73197.0</t>
-  </si>
-  <si>
-    <t>133362</t>
-  </si>
-  <si>
-    <t>11623.0</t>
-  </si>
-  <si>
-    <t>12124</t>
-  </si>
-  <si>
-    <t>-501.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>14366</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>31158.0</t>
-  </si>
-  <si>
-    <t>53643</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>1888.0</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>43926.0</t>
-  </si>
-  <si>
-    <t>75451</t>
-  </si>
-  <si>
-    <t>1745.0</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
     <t>44.0</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>45206.0</t>
-  </si>
-  <si>
-    <t>67377</t>
-  </si>
-  <si>
-    <t>2255.0</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>337.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>87573.0</t>
-  </si>
-  <si>
-    <t>121959</t>
-  </si>
-  <si>
-    <t>6114.0</t>
-  </si>
-  <si>
-    <t>4679</t>
-  </si>
-  <si>
-    <t>1435.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>6556</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>68817.0</t>
-  </si>
-  <si>
-    <t>128351</t>
-  </si>
-  <si>
-    <t>3731.0</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>675.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>4345</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>53327.0</t>
-  </si>
-  <si>
-    <t>52352</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>2391.0</t>
-  </si>
-  <si>
-    <t>1868</t>
-  </si>
-  <si>
-    <t>523.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>3201</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>50846.0</t>
-  </si>
-  <si>
-    <t>60958</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>1795.0</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>78474.0</t>
-  </si>
-  <si>
-    <t>87321</t>
-  </si>
-  <si>
-    <t>3445.0</t>
-  </si>
-  <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>352.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>4158</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>68980.0</t>
-  </si>
-  <si>
-    <t>69946</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>4136.0</t>
-  </si>
-  <si>
-    <t>3384</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>4455</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>86022.0</t>
-  </si>
-  <si>
-    <t>153366</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>4822.0</t>
-  </si>
-  <si>
-    <t>4325</t>
-  </si>
-  <si>
-    <t>497.0</t>
-  </si>
-  <si>
-    <t>6028</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>26497.0</t>
-  </si>
-  <si>
-    <t>35427</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>649.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>1283.0</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>51.0</t>
+    <t>132.0</t>
   </si>
 </sst>
 </file>
@@ -1112,13 +1079,13 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1192,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1210,13 +1177,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1236,40 +1203,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1334,7 @@
         <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1414,13 +1381,13 @@
         <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1494,13 +1461,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1512,13 +1479,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
         <v>135</v>
       </c>
-      <c r="L2" t="s">
-        <v>136</v>
-      </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1538,40 +1505,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1645,13 +1612,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1663,13 +1630,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1689,40 +1656,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
         <v>145</v>
-      </c>
-      <c r="F3" t="s">
-        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1796,13 +1763,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1814,13 +1781,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1840,40 +1807,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
         <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" t="s">
-        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1947,13 +1914,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1965,13 +1932,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1991,40 +1958,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2098,13 +2065,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2116,13 +2083,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2142,40 +2109,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2249,13 +2216,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2267,13 +2234,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2293,40 +2260,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2400,13 +2367,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2418,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -2444,40 +2411,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2551,13 +2518,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2569,13 +2536,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2595,10 +2562,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2628,7 +2595,7 @@
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -2773,13 +2740,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2853,13 +2820,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2871,13 +2838,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2897,40 +2864,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3004,13 +2971,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3022,13 +2989,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3048,16 +3015,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3066,10 +3033,10 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3143,13 +3110,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3161,13 +3128,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3187,40 +3154,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3294,13 +3261,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3312,13 +3279,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3338,40 +3305,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3445,13 +3412,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3463,13 +3430,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3489,40 +3456,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3596,13 +3563,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3614,13 +3581,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3640,40 +3607,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="198">
   <si>
     <t>mesure</t>
   </si>
@@ -99,54 +99,57 @@
     <t>2022-01-31</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>4536.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>dossiers validés</t>
+  </si>
+  <si>
+    <t>Faciliter l’accès au logement des personnes sans-abri</t>
+  </si>
+  <si>
+    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
+  </si>
+  <si>
+    <t>logement-sans-domicile-hebergement-urgence</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>4536.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>dossiers validés</t>
-  </si>
-  <si>
-    <t>Faciliter l’accès au logement des personnes sans-abri</t>
-  </si>
-  <si>
-    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
-  </si>
-  <si>
-    <t>logement-sans-domicile-hebergement-urgence</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>-30.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
     <t>personnes dans l'année*</t>
   </si>
   <si>
@@ -168,7 +171,7 @@
     <t>53.0</t>
   </si>
   <si>
-    <t>29.0</t>
+    <t>29</t>
   </si>
   <si>
     <t>24.0</t>
@@ -201,109 +204,112 @@
     <t>92.0</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>5031.0</t>
+  </si>
+  <si>
+    <t>6702.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>953.0</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>425.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>84637.0</t>
+  </si>
+  <si>
+    <t>133362</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>15845.0</t>
+  </si>
+  <si>
+    <t>12124</t>
+  </si>
+  <si>
+    <t>3721.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>14366</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>36477.0</t>
+  </si>
+  <si>
+    <t>53643</t>
+  </si>
+  <si>
     <t>68.0</t>
   </si>
   <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>5031.0</t>
-  </si>
-  <si>
-    <t>6702.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>953.0</t>
-  </si>
-  <si>
-    <t>528.0</t>
-  </si>
-  <si>
-    <t>425.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>84637.0</t>
-  </si>
-  <si>
-    <t>133362.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>15845.0</t>
-  </si>
-  <si>
-    <t>12124.0</t>
-  </si>
-  <si>
-    <t>3721.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>14366.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>36477.0</t>
-  </si>
-  <si>
-    <t>53643.0</t>
-  </si>
-  <si>
     <t>2135.0</t>
   </si>
   <si>
-    <t>1538.0</t>
+    <t>1538</t>
   </si>
   <si>
     <t>597.0</t>
@@ -312,7 +318,7 @@
     <t>39.0</t>
   </si>
   <si>
-    <t>2200.0</t>
+    <t>2200</t>
   </si>
   <si>
     <t>90.0</t>
@@ -327,13 +333,13 @@
     <t>51383.0</t>
   </si>
   <si>
-    <t>75451.0</t>
+    <t>75451</t>
   </si>
   <si>
     <t>1874.0</t>
   </si>
   <si>
-    <t>1439.0</t>
+    <t>1439</t>
   </si>
   <si>
     <t>435.0</t>
@@ -342,7 +348,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2134.0</t>
+    <t>2134</t>
   </si>
   <si>
     <t>28</t>
@@ -354,7 +360,7 @@
     <t>52255.0</t>
   </si>
   <si>
-    <t>67377.0</t>
+    <t>67377</t>
   </si>
   <si>
     <t>78.0</t>
@@ -363,7 +369,7 @@
     <t>2901.0</t>
   </si>
   <si>
-    <t>1918.0</t>
+    <t>1918</t>
   </si>
   <si>
     <t>983.0</t>
@@ -372,7 +378,7 @@
     <t>51.0</t>
   </si>
   <si>
-    <t>2739.0</t>
+    <t>2739</t>
   </si>
   <si>
     <t>32</t>
@@ -384,13 +390,13 @@
     <t>100719.0</t>
   </si>
   <si>
-    <t>121959.0</t>
+    <t>121959</t>
   </si>
   <si>
     <t>6882.0</t>
   </si>
   <si>
-    <t>4679.0</t>
+    <t>4679</t>
   </si>
   <si>
     <t>2203.0</t>
@@ -399,7 +405,7 @@
     <t>47.0</t>
   </si>
   <si>
-    <t>6556.0</t>
+    <t>6556</t>
   </si>
   <si>
     <t>44</t>
@@ -411,13 +417,13 @@
     <t>80312.0</t>
   </si>
   <si>
-    <t>128351.0</t>
+    <t>128351</t>
   </si>
   <si>
     <t>4455.0</t>
   </si>
   <si>
-    <t>3056.0</t>
+    <t>3056</t>
   </si>
   <si>
     <t>1399.0</t>
@@ -426,7 +432,7 @@
     <t>46.0</t>
   </si>
   <si>
-    <t>4345.0</t>
+    <t>4345</t>
   </si>
   <si>
     <t>52</t>
@@ -438,19 +444,19 @@
     <t>61547.0</t>
   </si>
   <si>
-    <t>52352.0</t>
+    <t>52352</t>
   </si>
   <si>
     <t>3302.0</t>
   </si>
   <si>
-    <t>1868.0</t>
+    <t>1868</t>
   </si>
   <si>
     <t>1434.0</t>
   </si>
   <si>
-    <t>3201.0</t>
+    <t>3201</t>
   </si>
   <si>
     <t>53</t>
@@ -462,7 +468,7 @@
     <t>58675.0</t>
   </si>
   <si>
-    <t>60958.0</t>
+    <t>60958</t>
   </si>
   <si>
     <t>96.0</t>
@@ -471,7 +477,7 @@
     <t>2191.0</t>
   </si>
   <si>
-    <t>1415.0</t>
+    <t>1415</t>
   </si>
   <si>
     <t>776.0</t>
@@ -492,13 +498,13 @@
     <t>91456.0</t>
   </si>
   <si>
-    <t>87321.0</t>
+    <t>87321</t>
   </si>
   <si>
     <t>4772.0</t>
   </si>
   <si>
-    <t>3093.0</t>
+    <t>3093</t>
   </si>
   <si>
     <t>1679.0</t>
@@ -507,7 +513,7 @@
     <t>54.0</t>
   </si>
   <si>
-    <t>4158.0</t>
+    <t>4158</t>
   </si>
   <si>
     <t>76</t>
@@ -519,13 +525,13 @@
     <t>80271.0</t>
   </si>
   <si>
-    <t>69946.0</t>
+    <t>69946</t>
   </si>
   <si>
     <t>4792.0</t>
   </si>
   <si>
-    <t>3384.0</t>
+    <t>3384</t>
   </si>
   <si>
     <t>1408.0</t>
@@ -534,6 +540,9 @@
     <t>42.0</t>
   </si>
   <si>
+    <t>4455</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -543,7 +552,7 @@
     <t>100396.0</t>
   </si>
   <si>
-    <t>153366.0</t>
+    <t>153366</t>
   </si>
   <si>
     <t>65.0</t>
@@ -552,7 +561,7 @@
     <t>7022.0</t>
   </si>
   <si>
-    <t>4325.0</t>
+    <t>4325</t>
   </si>
   <si>
     <t>2697.0</t>
@@ -561,7 +570,7 @@
     <t>62.0</t>
   </si>
   <si>
-    <t>6028.0</t>
+    <t>6028</t>
   </si>
   <si>
     <t>93</t>
@@ -573,7 +582,7 @@
     <t>30890.0</t>
   </si>
   <si>
-    <t>35427.0</t>
+    <t>35427</t>
   </si>
   <si>
     <t>87.0</t>
@@ -582,7 +591,7 @@
     <t>3230.0</t>
   </si>
   <si>
-    <t>2048.0</t>
+    <t>2048</t>
   </si>
   <si>
     <t>1182.0</t>
@@ -591,7 +600,7 @@
     <t>58.0</t>
   </si>
   <si>
-    <t>2882.0</t>
+    <t>2882</t>
   </si>
   <si>
     <t>94</t>
@@ -603,16 +612,19 @@
     <t>1486.0</t>
   </si>
   <si>
-    <t>1860.0</t>
+    <t>1860</t>
   </si>
   <si>
     <t>139.0</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>44.0</t>
   </si>
   <si>
-    <t>132.0</t>
+    <t>132</t>
   </si>
 </sst>
 </file>
@@ -1079,13 +1091,13 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1159,13 +1171,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1177,13 +1189,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1203,40 +1215,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1310,13 +1322,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1328,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1354,40 +1366,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1461,13 +1473,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1479,13 +1491,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1505,40 +1517,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1612,13 +1624,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1630,13 +1642,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1656,40 +1668,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1763,13 +1775,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1781,13 +1793,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1807,40 +1819,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1914,13 +1926,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1932,13 +1944,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1958,40 +1970,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2065,13 +2077,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2083,13 +2095,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2109,40 +2121,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2216,13 +2228,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2234,13 +2246,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2260,40 +2272,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2367,13 +2379,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2385,10 +2397,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -2411,40 +2423,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2518,13 +2530,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2536,13 +2548,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2562,40 +2574,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2669,13 +2681,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2687,13 +2699,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2713,40 +2725,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2820,13 +2832,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2838,13 +2850,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2864,40 +2876,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2971,13 +2983,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2989,13 +3001,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3015,16 +3027,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3033,10 +3045,10 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3110,13 +3122,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3128,13 +3140,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3154,40 +3166,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3261,13 +3273,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3279,13 +3291,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3305,40 +3317,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3412,13 +3424,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3430,13 +3442,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3456,40 +3468,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3563,13 +3575,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3581,13 +3593,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3607,40 +3619,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/regions/barometre-resultats-logement-ville-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="199">
   <si>
     <t>mesure</t>
   </si>
@@ -93,13 +93,13 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>3634.0</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>4539.0</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>2019-12-31</t>
@@ -108,7 +108,7 @@
     <t>4536.0</t>
   </si>
   <si>
-    <t>80.0</t>
+    <t>100.0</t>
   </si>
   <si>
     <t>2022-12-31</t>
@@ -126,505 +126,508 @@
     <t>logement-sans-domicile-hebergement-urgence</t>
   </si>
   <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-79.0</t>
+  </si>
+  <si>
+    <t>-58.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>personnes dans l'année*</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>2803.0</t>
+  </si>
+  <si>
+    <t>2379.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>849.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>6407.0</t>
+  </si>
+  <si>
+    <t>6702.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>717.0</t>
+  </si>
+  <si>
+    <t>528.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>1067.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>132096.0</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>133362.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>15065.0</t>
+  </si>
+  <si>
+    <t>12124.0</t>
+  </si>
+  <si>
+    <t>2941.0</t>
+  </si>
+  <si>
+    <t>17381.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>59434.0</t>
+  </si>
+  <si>
+    <t>53643.0</t>
+  </si>
+  <si>
+    <t>1918.0</t>
+  </si>
+  <si>
+    <t>1538.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>2354.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>82583.0</t>
+  </si>
+  <si>
+    <t>75451.0</t>
+  </si>
+  <si>
+    <t>1882.0</t>
+  </si>
+  <si>
+    <t>1439.0</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>2199.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>81153.0</t>
+  </si>
+  <si>
+    <t>67377.0</t>
+  </si>
+  <si>
+    <t>2853.0</t>
+  </si>
+  <si>
+    <t>935.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>2991.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>152914.0</t>
+  </si>
+  <si>
+    <t>121959.0</t>
+  </si>
+  <si>
+    <t>5741.0</t>
+  </si>
+  <si>
+    <t>4679.0</t>
+  </si>
+  <si>
+    <t>1062.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>7150.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>126142.0</t>
+  </si>
+  <si>
+    <t>128351.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>4282.0</t>
+  </si>
+  <si>
+    <t>3056.0</t>
+  </si>
+  <si>
+    <t>1226.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>4620.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>94766.0</t>
+  </si>
+  <si>
+    <t>52352.0</t>
+  </si>
+  <si>
+    <t>3167.0</t>
+  </si>
+  <si>
+    <t>1868.0</t>
+  </si>
+  <si>
+    <t>1299.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>3541.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>89353.0</t>
+  </si>
+  <si>
+    <t>60958.0</t>
+  </si>
+  <si>
+    <t>2068.0</t>
+  </si>
+  <si>
+    <t>1415.0</t>
+  </si>
+  <si>
+    <t>653.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>2310.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>145862.0</t>
+  </si>
+  <si>
+    <t>87321.0</t>
+  </si>
+  <si>
+    <t>4219.0</t>
+  </si>
+  <si>
+    <t>3093.0</t>
+  </si>
+  <si>
+    <t>1126.0</t>
+  </si>
+  <si>
+    <t>4928.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>124880.0</t>
+  </si>
+  <si>
+    <t>69946.0</t>
+  </si>
+  <si>
+    <t>4256.0</t>
+  </si>
+  <si>
+    <t>3384.0</t>
+  </si>
+  <si>
+    <t>872.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>4929.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>158020.0</t>
+  </si>
+  <si>
+    <t>153366.0</t>
+  </si>
+  <si>
+    <t>6011.0</t>
+  </si>
+  <si>
+    <t>4325.0</t>
+  </si>
+  <si>
+    <t>1686.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>7459.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>48969.0</t>
+  </si>
+  <si>
+    <t>35427.0</t>
+  </si>
+  <si>
+    <t>3019.0</t>
+  </si>
+  <si>
+    <t>2048.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
+  </si>
+  <si>
+    <t>3367.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>2197.0</t>
+  </si>
+  <si>
+    <t>1860.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
     <t>95.0</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>-30.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>personnes dans l'année*</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>1948.0</t>
-  </si>
-  <si>
-    <t>2379.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>5031.0</t>
-  </si>
-  <si>
-    <t>6702.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>953.0</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>425.0</t>
-  </si>
-  <si>
-    <t>1034.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>84637.0</t>
-  </si>
-  <si>
-    <t>133362</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>15845.0</t>
-  </si>
-  <si>
-    <t>12124</t>
-  </si>
-  <si>
-    <t>3721.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>14366</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>36477.0</t>
-  </si>
-  <si>
-    <t>53643</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>2135.0</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>597.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>51383.0</t>
-  </si>
-  <si>
-    <t>75451</t>
-  </si>
-  <si>
-    <t>1874.0</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>435.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>52255.0</t>
-  </si>
-  <si>
-    <t>67377</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>2901.0</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>983.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>100719.0</t>
-  </si>
-  <si>
-    <t>121959</t>
-  </si>
-  <si>
-    <t>6882.0</t>
-  </si>
-  <si>
-    <t>4679</t>
-  </si>
-  <si>
-    <t>2203.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>6556</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>80312.0</t>
-  </si>
-  <si>
-    <t>128351</t>
-  </si>
-  <si>
-    <t>4455.0</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>1399.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>4345</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>61547.0</t>
-  </si>
-  <si>
-    <t>52352</t>
-  </si>
-  <si>
-    <t>3302.0</t>
-  </si>
-  <si>
-    <t>1868</t>
-  </si>
-  <si>
-    <t>1434.0</t>
-  </si>
-  <si>
-    <t>3201</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>58675.0</t>
-  </si>
-  <si>
-    <t>60958</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>2191.0</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>776.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>91456.0</t>
-  </si>
-  <si>
-    <t>87321</t>
-  </si>
-  <si>
-    <t>4772.0</t>
-  </si>
-  <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>1679.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>4158</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>80271.0</t>
-  </si>
-  <si>
-    <t>69946</t>
-  </si>
-  <si>
-    <t>4792.0</t>
-  </si>
-  <si>
-    <t>3384</t>
-  </si>
-  <si>
-    <t>1408.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>4455</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>100396.0</t>
-  </si>
-  <si>
-    <t>153366</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>7022.0</t>
-  </si>
-  <si>
-    <t>4325</t>
-  </si>
-  <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>6028</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>30890.0</t>
-  </si>
-  <si>
-    <t>35427</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>3230.0</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>1182.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>1486.0</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>132</t>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1094,13 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1174,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1189,13 +1192,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1215,40 +1218,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
         <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
         <v>122</v>
-      </c>
-      <c r="K3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1322,16 +1325,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1340,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
         <v>127</v>
-      </c>
-      <c r="L2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1366,40 +1369,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
         <v>131</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>133</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1485,7 @@
         <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1497,7 +1500,7 @@
         <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1538,19 +1541,19 @@
         <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1624,16 +1627,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1642,13 +1645,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1668,10 +1671,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
         <v>147</v>
@@ -1692,16 +1695,16 @@
         <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1775,16 +1778,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1793,13 +1796,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1819,40 +1822,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>160</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1926,16 +1929,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1944,13 +1947,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1970,40 +1973,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2077,16 +2080,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2095,13 +2098,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2121,10 +2124,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
         <v>175</v>
@@ -2148,13 +2151,13 @@
         <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2228,16 +2231,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2246,13 +2249,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2272,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
         <v>185</v>
@@ -2293,19 +2296,19 @@
         <v>187</v>
       </c>
       <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
         <v>188</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>189</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2391,7 @@
         <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -2444,19 +2447,19 @@
         <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2530,13 +2533,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2548,13 +2551,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2574,40 +2577,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2681,13 +2684,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2699,13 +2702,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2725,40 +2728,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2832,13 +2835,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2850,13 +2853,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2876,40 +2879,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2983,13 +2986,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3001,13 +3004,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3027,16 +3030,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -3045,10 +3048,10 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3122,16 +3125,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -3140,13 +3143,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3166,40 +3169,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3273,16 +3276,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -3291,13 +3294,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3317,40 +3320,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
         <v>93</v>
-      </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3424,16 +3427,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -3442,13 +3445,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3468,40 +3471,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
         <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>80</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3575,16 +3578,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -3593,13 +3596,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3619,40 +3622,40 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
